--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1095262.190914833</v>
+        <v>1093374.609398432</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800618</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>114.0138441087954</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>22.02087812852558</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.35153719005459</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>83.59830597394803</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>117.6401963131067</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>26.40868448976611</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>123.4514883688806</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>82.92375604299546</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>180.2484107694636</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481181</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>267.6706011535613</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229337</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853705</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,22 +1333,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.98230461792383</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>129.0246247964035</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274077</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.5668126389825</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>93.87916681139872</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>277.7973062640921</v>
+        <v>250.0068403603047</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>144.4797853959756</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>70.43533402631107</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>95.69941725530033</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>172.7067178467365</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>33.35146980185817</v>
       </c>
       <c r="C28" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>78.97366804880204</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965528</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180121</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437417</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897906</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571493</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523574</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,7 +3007,7 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>167.2552862632426</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
         <v>231.3197417080339</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.700090052297</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789566</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463131</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3281,10 +3281,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3503,13 +3503,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>863.1126181035243</v>
+        <v>1383.846446409823</v>
       </c>
       <c r="C2" t="n">
-        <v>494.1501011631125</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D2" t="n">
-        <v>494.1501011631125</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>494.1501011631125</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
         <v>471.9067899221776</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>1383.846446409823</v>
       </c>
     </row>
     <row r="3">
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
         <v>266.206002764199</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4516,22 +4516,22 @@
         <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>365.6939024587809</v>
+        <v>138.3857151273827</v>
       </c>
       <c r="U4" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>76.52029211334889</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1422.14692331494</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.14692331494</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2670.473652139671</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="V5" t="n">
-        <v>2267.209817970484</v>
+        <v>2416.711866777763</v>
       </c>
       <c r="W5" t="n">
-        <v>1914.44116270037</v>
+        <v>2063.943211507648</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.97540443929</v>
+        <v>1690.477453246569</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.97540443929</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587813</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>473.4444960005474</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y7" t="n">
-        <v>473.4444960005474</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1376.372217881286</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="C8" t="n">
-        <v>1376.372217881286</v>
+        <v>1095.807382993972</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>737.5416843872215</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762915</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>625.372765927088</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252749</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224071</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548714</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548714</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520777</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520777</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520777</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520777</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X8" t="n">
-        <v>2153.11138992122</v>
+        <v>1485.946714969784</v>
       </c>
       <c r="Y8" t="n">
-        <v>1762.972057945408</v>
+        <v>1095.807382993972</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572642</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>702.8943330772177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>533.9581501493108</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>383.841510736975</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658206</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502495</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594895</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064336</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>702.8943330772177</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>702.8943330772177</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>702.8943330772177</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="T10" t="n">
-        <v>702.8943330772177</v>
+        <v>597.8010803716834</v>
       </c>
       <c r="U10" t="n">
-        <v>702.8943330772177</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V10" t="n">
-        <v>702.8943330772177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W10" t="n">
-        <v>702.8943330772177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>702.8943330772177</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.8943330772177</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5118,28 +5118,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>372.9624052601988</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273991</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>554.6108700904385</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,34 +5267,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823778</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5361,16 +5361,16 @@
         <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5434,22 +5434,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688069</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765182</v>
       </c>
       <c r="V16" t="n">
-        <v>1387.841167119728</v>
+        <v>531.3977182706313</v>
       </c>
       <c r="W16" t="n">
-        <v>1107.237827459029</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X16" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y16" t="n">
-        <v>879.2482765610114</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5558,7 +5558,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N18" t="n">
-        <v>1453.977845975556</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881927</v>
       </c>
       <c r="C19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1041.981979867628</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>752.8533410811858</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>498.168852875299</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W19" t="n">
-        <v>208.7516828383384</v>
+        <v>714.9354044297402</v>
       </c>
       <c r="X19" t="n">
-        <v>208.7516828383384</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y19" t="n">
-        <v>208.7516828383384</v>
+        <v>266.1532743881927</v>
       </c>
     </row>
     <row r="20">
@@ -5735,34 +5735,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>510.7324460062428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>341.7962630783359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>341.7962630783359</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>193.8831694959428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>193.8831694959428</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.78763177146</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V22" t="n">
-        <v>1209.78763177146</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>920.3704617344997</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>692.3809108364824</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>692.3809108364824</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,49 +5990,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,25 +6163,25 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
@@ -6215,19 +6215,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,13 +6236,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>256.0479578003559</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
         <v>97.21709146028584</v>
@@ -6385,13 +6385,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383436</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655734</v>
+        <v>420.3226148324567</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286129</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305956</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226305956</v>
+        <v>130.9054447954961</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6473,19 +6473,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231263</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1999.905696641086</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2279.445761859783</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>469.5113192794992</v>
+        <v>439.532429954218</v>
       </c>
       <c r="C31" t="n">
-        <v>469.5113192794992</v>
+        <v>359.7610480867412</v>
       </c>
       <c r="D31" t="n">
-        <v>375.1555451485342</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="E31" t="n">
-        <v>283.0033168475119</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309723</v>
+        <v>265.4052739557762</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309723</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028586</v>
+        <v>152.9908175569676</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6625,16 +6625,16 @@
         <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962051</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
@@ -6643,10 +6643,10 @@
         <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1166.315623062764</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>932.659318307174</v>
+        <v>902.6804289818928</v>
       </c>
       <c r="X31" t="n">
-        <v>760.4306326905274</v>
+        <v>730.4517433652462</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.3989188283681</v>
+        <v>565.4200295030869</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525397</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2413.343925613455</v>
       </c>
       <c r="Q36" t="n">
         <v>2612.943493278838</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229678</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7172,28 +7172,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506718</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7348,19 +7348,19 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7391,31 +7391,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1088.787142923176</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1396.107276203138</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N42" t="n">
-        <v>1725.969903867171</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O42" t="n">
-        <v>2005.509969085868</v>
+        <v>1925.814757496977</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2446.115379232724</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982974</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7625,70 +7625,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,7 +7801,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7810,13 +7810,13 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O46" t="n">
         <v>1688.186490350129</v>
@@ -7828,7 +7828,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8547,7 +8547,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>199.0269485415611</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,16 +8766,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>433.7515527292971</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8787,10 +8787,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>96.03744927814699</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>43.6598726146251</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>285.1031356539336</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9413,7 +9413,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>145.2351313103793</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>176.7176547498447</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9951,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>199.6230805871087</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>52.49733361305249</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>403.7628319612151</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,13 +10677,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>113.6026921294541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10841,10 +10841,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>308.1251096272033</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>169.2863157167187</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11157,10 +11157,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>91.23759968302093</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4091825776756</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>285.1031356539331</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>21.04866037922982</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,22 +23650,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>8.725692072498919</v>
+        <v>36.51615797628628</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>77.06777566241364</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>216.0876643102799</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>70.79415120807725</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>79.43092547709153</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24412,10 +24412,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338569</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>146.4805103800791</v>
       </c>
       <c r="C28" t="n">
-        <v>10.00426342195846</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>33.06989642126874</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>29.67910043202836</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="7">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="D2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787489</v>
       </c>
       <c r="E2" t="n">
+        <v>410580.5127245943</v>
+      </c>
+      <c r="F2" t="n">
         <v>410580.5127245944</v>
-      </c>
-      <c r="F2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
@@ -26335,7 +26335,7 @@
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>427163.2442125332</v>
@@ -26344,7 +26344,7 @@
         <v>431046.9291787486</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="N2" t="n">
         <v>431046.9291787487</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284565</v>
       </c>
     </row>
     <row r="4">
@@ -26421,19 +26421,19 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865245</v>
+        <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687075</v>
       </c>
       <c r="F4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26442,19 +26442,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.2301010673</v>
+        <v>40339.23010106724</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
@@ -26482,25 +26482,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-407412.8958857297</v>
+        <v>-407412.8958857296</v>
       </c>
       <c r="C6" t="n">
-        <v>182554.9833288148</v>
+        <v>182554.9833288149</v>
       </c>
       <c r="D6" t="n">
-        <v>182554.9833288152</v>
+        <v>182554.983328815</v>
       </c>
       <c r="E6" t="n">
-        <v>-228741.4572878894</v>
+        <v>-228838.9164138613</v>
       </c>
       <c r="F6" t="n">
-        <v>296418.579189007</v>
+        <v>296321.1200630349</v>
       </c>
       <c r="G6" t="n">
-        <v>296418.579189007</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="H6" t="n">
-        <v>296418.5791890069</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="I6" t="n">
-        <v>296418.579189007</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="J6" t="n">
-        <v>119995.3599964141</v>
+        <v>119897.9008704418</v>
       </c>
       <c r="K6" t="n">
-        <v>246033.2002783975</v>
+        <v>246014.7065404632</v>
       </c>
       <c r="L6" t="n">
         <v>278395.5217296651</v>
       </c>
       <c r="M6" t="n">
-        <v>153937.4132966949</v>
+        <v>153937.4132966948</v>
       </c>
       <c r="N6" t="n">
         <v>288738.4285305321</v>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170862</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
@@ -26750,34 +26750,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108362</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>251.2590476622121</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>384.8551676131859</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.4804429918827</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27588,10 +27588,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>265.0936453503739</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>28.06971808504555</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>25.16398464933172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>142.1113494150888</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>201.6819593027982</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089716</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>102.0604995249077</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28053,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.140445336990538</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>83.12091415361536</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29530,7 +29530,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855707</v>
+        <v>55.20325662855705</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30223,13 +30223,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30478,7 +30478,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255446</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081575</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405364</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338301</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954664</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044135</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633787</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473546</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141101</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188906</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890686</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396467</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478005</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034976</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619147</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078603</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644435</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813572</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302231</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175834</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383791</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678002</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.6281993970116</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695334</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315606</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343417</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530449</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898687</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770682</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713855</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.31973343389</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751884</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713946</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873139</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>744.1759297797634</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
@@ -35507,10 +35507,10 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35738,10 +35738,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>378.4011515192551</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>250.7532875461497</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,19 +35969,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>618.2977090519464</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
         <v>570.6060255109123</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36209,16 +36209,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>233.2481640954534</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>487.142031800311</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>448.880785543133</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,16 +36829,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>259.5907485445772</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412259</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37008,7 +37008,7 @@
         <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043182</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>736.957405359228</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>201.6157249145282</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,10 +37561,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>618.5494866776696</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>418.5440206727429</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.0130327850741</v>
+        <v>179.2506324680951</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>570.7728848187837</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>492.1965505854578</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
